--- a/Documents/Specification/Database_Specification.xlsx
+++ b/Documents/Specification/Database_Specification.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>회원정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,9 +244,6 @@
   <si>
     <t>answer_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owner_id</t>
   </si>
   <si>
     <t>rs_id</t>
@@ -769,7 +766,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -777,7 +774,7 @@
     <col min="1" max="15" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,14 +783,13 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -805,18 +801,15 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -827,14 +820,11 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -844,9 +834,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -861,10 +851,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -884,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -893,10 +883,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -908,7 +898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -925,7 +915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -938,7 +928,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -990,10 +980,10 @@
         <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>23</v>
@@ -1034,7 +1024,7 @@
         <v>27</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1049,13 +1039,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>52</v>
@@ -1101,13 +1091,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>35</v>
@@ -1122,7 +1112,7 @@
         <v>33</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1148,7 +1138,7 @@
         <v>33</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1165,13 +1155,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>30</v>
@@ -1180,13 +1170,13 @@
         <v>48</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="H36" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1206,13 +1196,13 @@
         <v>48</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="H37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1226,13 +1216,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>41</v>
@@ -1268,13 +1258,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>49</v>
@@ -1296,7 +1286,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1307,25 +1297,25 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1339,16 +1329,16 @@
         <v>48</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Specification/Database_Specification.xlsx
+++ b/Documents/Specification/Database_Specification.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
   <si>
     <t>회원정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rs_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>event_title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rs_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>review_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,6 +383,54 @@
   </si>
   <si>
     <t>현재시각 - tbl_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문신청리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -786,7 +826,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -801,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -821,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -836,7 +876,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -851,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -886,13 +926,13 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -903,13 +943,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
@@ -928,19 +968,19 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -948,24 +988,24 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -977,59 +1017,59 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1039,47 +1079,47 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1091,59 +1131,59 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1155,59 +1195,59 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1216,41 +1256,41 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1258,35 +1298,35 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1297,49 +1337,102 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="B54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Documents/Specification/Database_Specification.xlsx
+++ b/Documents/Specification/Database_Specification.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="105">
   <si>
     <t>회원정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>owner_pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rs_owner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,6 +427,22 @@
   </si>
   <si>
     <t>TIME()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -814,7 +826,7 @@
     <col min="1" max="15" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,49 +834,42 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -873,48 +878,76 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="I8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -923,10 +956,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -938,12 +971,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -955,7 +988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -968,7 +1001,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -988,7 +1021,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
@@ -1020,10 +1053,10 @@
         <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>22</v>
@@ -1064,7 +1097,7 @@
         <v>26</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1079,13 +1112,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>50</v>
@@ -1131,13 +1164,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>34</v>
@@ -1152,7 +1185,7 @@
         <v>32</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1160,7 +1193,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
@@ -1178,7 +1211,7 @@
         <v>32</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1195,13 +1228,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>29</v>
@@ -1210,13 +1243,13 @@
         <v>47</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="H36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1224,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>21</v>
@@ -1236,13 +1269,13 @@
         <v>47</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="H37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1256,13 +1289,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>40</v>
@@ -1276,7 +1309,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>21</v>
@@ -1298,13 +1331,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>48</v>
@@ -1326,7 +1359,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1337,25 +1370,25 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1363,40 +1396,40 @@
         <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1408,7 +1441,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1416,20 +1449,20 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>

--- a/Documents/Specification/Database_Specification.xlsx
+++ b/Documents/Specification/Database_Specification.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
   <si>
     <t>owner_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,7 +426,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table_rs</t>
+    <t>customer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsv_usersize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_usersize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsv_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_position_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_position_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -434,67 +502,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>customer_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_maxsize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_usersize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rsv_usersize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_rs_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_usersize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rsv_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_table</t>
+    <t>order_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +559,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +581,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,7 +620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -596,6 +634,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1026,7 +1067,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>91</v>
       </c>
@@ -1037,130 +1078,173 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="H20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="D32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">

--- a/Documents/Specification/Database_Specification.xlsx
+++ b/Documents/Specification/Database_Specification.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="143">
   <si>
     <t>owner_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,103 +162,386 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner_rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats_rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats_people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats_dish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_dish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재시각 - tbl_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_position_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_position_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsv_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsv_rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsv_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsv_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsv_headcount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsv_target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>rsv_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owner_rs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs_owner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_rs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_rs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_rs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer_target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer_rs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_rs</t>
+    <t>DATETIME()</t>
+  </si>
+  <si>
+    <t>DATETIME()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_headcount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -266,151 +549,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rsv_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rsv_rs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_rs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stats_rs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stats_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stats_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stats_people</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stats_dish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_dish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_people</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stats_total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stats_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재시각 - tbl_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs_image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_tbl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owner_tbl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>restaurant_tbl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_tbl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservation_tbl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_tbl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_rs_id</t>
+    <t>**JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_headcount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trash_order_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish --&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_tbl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -422,111 +593,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rsv_usersize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_rs_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_usersize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rsv_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_rs_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_position_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_position_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_people</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_tbl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_rs_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_total</t>
+    <t>answer_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,6 +704,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -919,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J92"/>
+  <dimension ref="A4:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -932,12 +1002,12 @@
   <sheetData>
     <row r="4" spans="1:10" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -958,24 +1028,26 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -989,19 +1061,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -1013,15 +1085,15 @@
         <v>8</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1037,7 +1109,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1045,31 +1117,31 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1078,173 +1150,326 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="F24" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E28" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
@@ -1258,7 +1483,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>11</v>
@@ -1275,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>11</v>
@@ -1300,7 +1525,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
@@ -1312,7 +1537,7 @@
         <v>15</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -1320,7 +1545,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
@@ -1332,7 +1557,7 @@
         <v>15</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -1349,13 +1574,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>19</v>
@@ -1378,7 +1603,7 @@
         <v>17</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>18</v>
@@ -1396,12 +1621,12 @@
         <v>23</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1411,42 +1636,42 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -1463,13 +1688,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>31</v>
@@ -1484,7 +1709,7 @@
         <v>29</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -1492,7 +1717,7 @@
         <v>32</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>26</v>
@@ -1510,12 +1735,12 @@
         <v>29</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1523,35 +1748,35 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1562,48 +1787,48 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F91" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D92" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="G92" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Specification/Database_Specification.xlsx
+++ b/Documents/Specification/Database_Specification.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="142">
   <si>
     <t>owner_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>owner_rs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rs_owner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,10 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>order_tbl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,10 +470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rsv_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rsv_rs_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -517,10 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>visit_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>visit_rs_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -537,6 +521,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>**JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_headcount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trash_order_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish --&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,55 +565,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>order_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_headcount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNIQUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trash_order_tbl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finish --&gt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_tbl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer_tbl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>answer_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner_rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner_pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1002,17 +998,18 @@
   <sheetData>
     <row r="4" spans="1:10" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1028,26 +1025,30 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>138</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1061,19 +1062,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -1085,15 +1086,15 @@
         <v>8</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1109,7 +1110,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1117,31 +1118,31 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1153,33 +1154,33 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1187,23 +1188,22 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1211,176 +1211,156 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="J24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>129</v>
+      <c r="A32" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1393,10 +1373,10 @@
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>20</v>
@@ -1410,27 +1390,27 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1439,24 +1419,24 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>45</v>
@@ -1468,7 +1448,7 @@
         <v>43</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1483,7 +1463,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>11</v>
@@ -1500,7 +1480,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>11</v>
@@ -1525,7 +1505,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
@@ -1545,7 +1525,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
@@ -1577,10 +1557,10 @@
         <v>41</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>19</v>
@@ -1621,7 +1601,7 @@
         <v>23</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -1636,13 +1616,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>42</v>
@@ -1688,13 +1668,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>31</v>
@@ -1709,7 +1689,7 @@
         <v>29</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -1717,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>26</v>
@@ -1735,7 +1715,7 @@
         <v>29</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -1748,13 +1728,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>40</v>
@@ -1776,7 +1756,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1787,25 +1767,25 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="F91" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -1813,22 +1793,22 @@
         <v>38</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Specification/Database_Specification.xlsx
+++ b/Documents/Specification/Database_Specification.xlsx
@@ -426,10 +426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>visit_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>table_rs_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>order_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rsv_rs_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,10 +470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rsv_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rsv_headcount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -586,6 +574,18 @@
   </si>
   <si>
     <t>table_customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsv_customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_customer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -988,7 +988,7 @@
   <dimension ref="A4:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1025,10 +1025,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1038,7 +1038,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>45</v>
@@ -1154,25 +1154,25 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>99</v>
@@ -1191,19 +1191,19 @@
         <v>96</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1211,35 +1211,35 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1247,26 +1247,26 @@
         <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E24" s="2"/>
       <c r="J24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1281,22 +1281,22 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1311,10 +1311,10 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1328,19 +1328,19 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1376,7 +1376,7 @@
         <v>51</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>20</v>
@@ -1390,19 +1390,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>54</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1431,12 +1431,12 @@
         <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>45</v>
@@ -1448,7 +1448,7 @@
         <v>43</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">

--- a/Documents/Specification/Database_Specification.xlsx
+++ b/Documents/Specification/Database_Specification.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="155">
   <si>
     <t>owner_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,55 +493,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>visit_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_headcount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trash_order_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish --&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner_rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner_pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsv_customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>visit_rs_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>visit_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_headcount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_headcount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNIQUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trash_order_tbl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finish --&gt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_tbl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer_tbl</t>
+    <t>visit_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -549,47 +597,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rsv_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_maxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_headCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept_rsv_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arsv_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arsv_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arsv_customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arsv_headcount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arsv_target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arsv_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>answer_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owner_rs_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owner_pin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rsv_customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_json</t>
+    <t>accept --&gt;&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,9 +752,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M92"/>
+  <dimension ref="A4:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1025,10 +1074,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1038,7 +1087,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>45</v>
@@ -1140,7 +1189,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>87</v>
       </c>
@@ -1151,8 +1200,9 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
@@ -1166,19 +1216,22 @@
         <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="H19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>97</v>
       </c>
@@ -1187,14 +1240,15 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>105</v>
       </c>
@@ -1202,14 +1256,14 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="I22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>106</v>
       </c>
@@ -1217,32 +1271,31 @@
         <v>107</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="J23" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M23" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -1250,26 +1303,26 @@
         <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E24" s="2"/>
+      <c r="I24" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="K24" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="L24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
@@ -1278,46 +1331,98 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="I27" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -1325,42 +1430,49 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1376,7 +1488,7 @@
         <v>51</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>20</v>
@@ -1390,13 +1502,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>20</v>
@@ -1410,7 +1522,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1431,12 +1543,12 @@
         <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>45</v>

--- a/Documents/Specification/Database_Specification.xlsx
+++ b/Documents/Specification/Database_Specification.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="156">
   <si>
     <t>owner_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,6 +642,10 @@
   </si>
   <si>
     <t>accept --&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arsv_rs_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1034,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:P92"/>
+  <dimension ref="A4:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1189,7 +1193,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>87</v>
       </c>
@@ -1202,7 +1206,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>97</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>105</v>
       </c>
@@ -1263,7 +1267,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>106</v>
       </c>
@@ -1295,7 +1299,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -1322,7 +1326,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
@@ -1340,8 +1344,9 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>143</v>
       </c>
@@ -1370,22 +1375,25 @@
         <v>147</v>
       </c>
       <c r="L27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>142</v>
       </c>
@@ -1409,20 +1417,23 @@
         <v>153</v>
       </c>
       <c r="L28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -1432,7 +1443,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
@@ -1452,7 +1463,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>142</v>
       </c>

--- a/Documents/Specification/Database_Specification.xlsx
+++ b/Documents/Specification/Database_Specification.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="164">
   <si>
     <t>owner_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,6 +646,38 @@
   </si>
   <si>
     <t>arsv_rs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_rs_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1040,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1100,367 +1132,341 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="1" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="I22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>125</v>
+        <v>144</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>123</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="I24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>123</v>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="K26" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="A26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>152</v>
+      <c r="A27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="I28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -1468,7 +1474,7 @@
         <v>142</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>98</v>
@@ -1478,99 +1484,169 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="K32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>115</v>
       </c>
     </row>
